--- a/数据整理/stocks/港股/06865-福莱特.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,199 +22,307 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>000906</t>
+  </si>
+  <si>
+    <t>270023</t>
+  </si>
+  <si>
+    <t>005847</t>
+  </si>
+  <si>
+    <t>005644</t>
+  </si>
+  <si>
+    <t>005583</t>
+  </si>
+  <si>
     <t>040018</t>
   </si>
   <si>
+    <t>001764</t>
+  </si>
+  <si>
+    <t>001581</t>
+  </si>
+  <si>
+    <t>011117</t>
+  </si>
+  <si>
+    <t>005197</t>
+  </si>
+  <si>
+    <t>005198</t>
+  </si>
+  <si>
+    <t>001943</t>
+  </si>
+  <si>
     <t>040021</t>
   </si>
   <si>
-    <t>011117</t>
-  </si>
-  <si>
-    <t>001764</t>
+    <t>004316</t>
+  </si>
+  <si>
+    <t>005701</t>
   </si>
   <si>
     <t>001942</t>
   </si>
   <si>
-    <t>001943</t>
-  </si>
-  <si>
-    <t>004316</t>
-  </si>
-  <si>
     <t>004317</t>
   </si>
   <si>
-    <t>001581</t>
-  </si>
-  <si>
     <t>001824</t>
   </si>
   <si>
-    <t>005197</t>
-  </si>
-  <si>
-    <t>005198</t>
-  </si>
-  <si>
-    <t>005583</t>
-  </si>
-  <si>
-    <t>005644</t>
-  </si>
-  <si>
-    <t>005701</t>
-  </si>
-  <si>
-    <t>005847</t>
-  </si>
-  <si>
-    <t>000906</t>
-  </si>
-  <si>
-    <t>270023</t>
+    <t>广发全球精选股票(QDII)美元现汇</t>
+  </si>
+  <si>
+    <t>广发全球精选股票(QDII)</t>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合A</t>
+  </si>
+  <si>
+    <t>广发沪港深行业龙头混合</t>
+  </si>
+  <si>
+    <t>易方达港股通红利灵活配置混合</t>
   </si>
   <si>
     <t>华安香港精选股票(QDII)</t>
   </si>
   <si>
+    <t>广发沪港深新机遇股票</t>
+  </si>
+  <si>
+    <t>华安沪港深通精选灵活配置混合</t>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合C</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>前海开源沪港深汇鑫灵活配置混合C</t>
+  </si>
+  <si>
     <t>华安大中华升级股票(QDII)</t>
   </si>
   <si>
-    <t>富国沪港深业绩驱动混合C</t>
-  </si>
-  <si>
-    <t>广发沪港深新机遇股票</t>
+    <t>前海开源沪港深裕鑫灵活配置混合A</t>
+  </si>
+  <si>
+    <t>上投摩根香港精选港股通混合</t>
   </si>
   <si>
     <t>前海开源沪港深汇鑫灵活配置混合A</t>
   </si>
   <si>
-    <t>前海开源沪港深汇鑫灵活配置混合C</t>
-  </si>
-  <si>
-    <t>前海开源沪港深裕鑫灵活配置混合A</t>
-  </si>
-  <si>
     <t>前海开源沪港深裕鑫灵活配置混合C</t>
   </si>
   <si>
-    <t>华安沪港深通精选灵活配置混合</t>
-  </si>
-  <si>
     <t>博时沪港深成长企业混合</t>
   </si>
   <si>
-    <t>工银瑞信沪港深精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>易方达港股通红利灵活配置混合</t>
-  </si>
-  <si>
-    <t>广发沪港深行业龙头混合</t>
-  </si>
-  <si>
-    <t>上投摩根香港精选港股通混合</t>
-  </si>
-  <si>
-    <t>富国沪港深业绩驱动混合A</t>
-  </si>
-  <si>
-    <t>广发全球精选股票(QDII)美元现汇</t>
-  </si>
-  <si>
-    <t>广发全球精选股票(QDII)</t>
+    <t>23.84</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.29</t>
+  </si>
+  <si>
+    <t>7.87</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>7.49</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>89.22</t>
+  </si>
+  <si>
+    <t>89.17</t>
+  </si>
+  <si>
+    <t>94.52</t>
+  </si>
+  <si>
+    <t>91.52</t>
   </si>
   <si>
     <t>92.89</t>
   </si>
   <si>
+    <t>80.59</t>
+  </si>
+  <si>
+    <t>93.34</t>
+  </si>
+  <si>
+    <t>94.72</t>
+  </si>
+  <si>
+    <t>20.21</t>
+  </si>
+  <si>
     <t>93.47</t>
   </si>
   <si>
-    <t>89.17</t>
-  </si>
-  <si>
-    <t>80.59</t>
-  </si>
-  <si>
-    <t>20.21</t>
-  </si>
-  <si>
     <t>82.77</t>
   </si>
   <si>
-    <t>93.34</t>
+    <t>89.12</t>
   </si>
   <si>
     <t>89.42</t>
   </si>
   <si>
-    <t>94.72</t>
-  </si>
-  <si>
-    <t>91.52</t>
-  </si>
-  <si>
-    <t>94.52</t>
-  </si>
-  <si>
-    <t>89.12</t>
-  </si>
-  <si>
-    <t>89.22</t>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>6.24</t>
   </si>
   <si>
     <t>6.68</t>
   </si>
   <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
     <t>5.06</t>
   </si>
   <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
     <t>2.95</t>
   </si>
   <si>
-    <t>2.65</t>
+    <t>2.90</t>
   </si>
   <si>
     <t>3.55</t>
   </si>
   <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>8.07</t>
+    <t>1.9239</t>
+  </si>
+  <si>
+    <t>1.3230</t>
+  </si>
+  <si>
+    <t>0.5489</t>
+  </si>
+  <si>
+    <t>0.4911</t>
+  </si>
+  <si>
+    <t>0.3894</t>
+  </si>
+  <si>
+    <t>0.2751</t>
+  </si>
+  <si>
+    <t>0.1985</t>
+  </si>
+  <si>
+    <t>0.1528</t>
+  </si>
+  <si>
+    <t>0.0778</t>
+  </si>
+  <si>
+    <t>0.0744</t>
+  </si>
+  <si>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.0223</t>
+  </si>
+  <si>
+    <t>0.0189</t>
+  </si>
+  <si>
+    <t>0.0162</t>
+  </si>
+  <si>
+    <t>0.0094</t>
+  </si>
+  <si>
+    <t>0.0091</t>
+  </si>
+  <si>
+    <t>0.0021</t>
   </si>
 </sst>
 </file>
@@ -572,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,365 +702,479 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06865-福莱特.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特.xlsx
@@ -1207,12 +1207,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/06865-福莱特.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,13 +1243,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>7.48</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06865-福莱特.xlsx
+++ b/数据整理/stocks/港股/06865-福莱特.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,737 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000906</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9239</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.84</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9239</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3230</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5489</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005583</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达港股通红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4911</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3894</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001764</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发沪港深新机遇股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2751</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1985</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1528</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0744</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001824</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时沪港深成长企业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1590,64 +918,736 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>3.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.48</v>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>